--- a/DB Specification/ENCLICK_테이블 명세서_OPTION_GROUP.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_OPTION_GROUP.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Desktop\ENCLICK 명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ENSSEL\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -20,231 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
   <x:si>
     <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'순서' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'SORT' </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">   INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
-  </x:si>
-  <x:si>
     <x:t>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.OPTION_GROUP') AND type in (N'U'))</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">   INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명", COL_NAME(fc.parent_object_id, fc.parent_column_id) "컬럼명"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'옵션그룹' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP' </x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHERE OBJECT_NAME (f.referenced_object_id) = 'OPTION_GROUP'</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'필수여부' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'ESSENTIAL_YN' </x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품CD</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'사용여부' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'USED_YN' </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'그룹ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'GROUP_ID' </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'그룹명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'GROUP_NM' </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'PROD_ID' </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'REGI_DT' </x:t>
-  </x:si>
-  <x:si>
-    <x:t>FOREIGN KEY (</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TABLE COMMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE / VERSION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPEN cursor1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PHYSICAL NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ADD CONSTRAINT </x:t>
-  </x:si>
-  <x:si>
-    <x:t>) ON [PRIMARY]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPTION_GROUP</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ALTER TABLE </x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOGICAL NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT('Y')</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(300)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROJECT NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESSENTIAL_YN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REGI_DT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SORT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODUCT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USED_YN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EXPLAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옵션그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENCLICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제약조건 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnClick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DESC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GROUP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UPDA_DT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BEGIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK,FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOMAIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROD_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALTER TABLE 테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ORDER BY f.name;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023.11.15 / ver1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명", COL_NAME(fc.parent_object_id, fc.parent_column_id) "컬럼명"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>);</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>END</x:t>
-  </x:si>
-  <x:si>
-    <x:t>,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SEQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>이현우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHERE OBJECT_NAME (f.referenced_object_id) = 'OPTION_GROUP'</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'필수여부' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'ESSENTIAL_YN' </x:t>
+    <x:t>) WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   WHERE OBJECT_NAME (f.referenced_object_id) = 'TEST'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※ 복합키를 외래키로 참조할 경우 복합키를 모두 하나의 외래키 제약조건에 같이 명시해야 합니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※ 테스트 테이블 명세서에서 지정한 FK 모두 기록해야 합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -285,19 +108,10 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>) WITH (PAD_INDEX  = OFF, STATISTICS_NORECOMPUTE  = OFF, IGNORE_DUP_KEY = OFF, ALLOW_ROW_LOCKS  = ON, ALLOW_PAGE_LOCKS  = ON) ON [PRIMARY]</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'옵션그룹' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP' </x:t>
-  </x:si>
-  <x:si>
-    <x:t>※ 복합키를 외래키로 참조할 경우 복합키를 모두 하나의 외래키 제약조건에 같이 명시해야 합니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   WHERE OBJECT_NAME (f.referenced_object_id) = 'TEST'</x:t>
+    <x:t xml:space="preserve">   GROUP BY f.name, OBJECT_NAME(f.parent_object_id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONSTRAINT PK_OPTION_GROUP PRIMARY KEY CLUSTERED (</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">   SELECT f.name "제약조건명", OBJECT_NAME(f.parent_object_id) "테이블명"</x:t>
@@ -306,19 +120,265 @@
     <x:t xml:space="preserve">INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">   FETCH NEXT FROM cursor1 INTO @name, @table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>※ 테스트 테이블 명세서에서 지정한 FK 모두 기록해야 합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   GROUP BY f.name, OBJECT_NAME(f.parent_object_id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONSTRAINT PK_OPTION_GROUP PRIMARY KEY CLUSTERED (</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   INNER JOIN sys.tables t ON t.object_id = fc.referenced_object_id </x:t>
+    <x:t xml:space="preserve">   INNER JOIN sys.foreign_key_columns AS fc ON f.object_id = fc.constraint_object_id  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RECOMMEND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFERENCES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GROUP_NM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TABLE NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키 제약조건 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATABASE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COLUMN NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옵션그룹 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALLOW NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROD_CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WRITTEN BY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 제약조건 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USE ENCLICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GROUP_CD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순서</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>);</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>END</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SEQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이현우</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ALTER TABLE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>FOREIGN KEY (</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE / VERSION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>) ON [PRIMARY]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPEN cursor1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPTION_GROUP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(300)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ADD CONSTRAINT </x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOGICAL NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PHYSICAL NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TABLE COMMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROJECT NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESSENTIAL_YN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT('Y')</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GROUP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SORT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EXPLAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옵션그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOMAIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEGIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROD_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EnClick</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODUCT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK,FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USED_YN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DESC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UPDA_DT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENCLICK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGI_DT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제약조건 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023.11.15 / ver1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORDER BY f.name;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALTER TABLE 테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">FROM sys.foreign_keys AS f </x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECLARE @name varchar(100)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHILE(@@fetch_status = 0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECLARE cursor1 CURSOR FOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DROP TABLE dbo.OPTION_GROUP</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   DROP CONSTRAINT @name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE dbo.OPTION_GROUP (</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK_PRODUCT_TO_OPTION_GROUP_1</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">   FROM sys.foreign_keys AS f </x:t>
@@ -327,91 +387,34 @@
     <x:t>FK_PROD_ID_TO_OPTION_GROUP_1</x:t>
   </x:si>
   <x:si>
-    <x:t>CREATE TABLE dbo.OPTION_GROUP (</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK_PRODUCT_TO_OPTION_GROUP_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COLUMN NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TABLE NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GROUP_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALLOW NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WRITTEN BY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RECOMMEND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키 제약조건 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 제약조건 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REFERENCES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USE ENCLICK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATABASE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GROUP_NM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옵션그룹 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   DROP CONSTRAINT @name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHILE(@@fetch_status = 0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DROP TABLE dbo.OPTION_GROUP</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">FROM sys.foreign_keys AS f </x:t>
-  </x:si>
-  <x:si>
-    <x:t>DECLARE cursor1 CURSOR FOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DECLARE @name varchar(100)</x:t>
+    <x:t>DATETIME2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   ALTER TABLE @table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>, @table varchar(100)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 제약조건 삭제 자동문(미완성)</x:t>
   </x:si>
   <x:si>
     <x:t>DROP CONSTRAINT 제약조건명</x:t>
   </x:si>
   <x:si>
-    <x:t>테이블 제약조건 삭제 자동문(미완성)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   ALTER TABLE @table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>, @table varchar(100)</x:t>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'사용여부' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'USED_YN' </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'REGI_DT' </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'그룹명' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'GROUP_NM' </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'그룹CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'GROUP_CD' </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'PROD_CD' </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -469,26 +472,11 @@
       <x:sz val="9"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff7f7f7f"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff7f7f7f"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="9"/>
+      <x:color rgb="ff7f7f7f"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -956,13 +944,13 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -981,31 +969,31 @@
       </mc:Fallback>
     </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1696,7 +1684,7 @@
   <x:dimension ref="A1:N49"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E16" activeCellId="0" sqref="E16:E16"/>
+      <x:selection activeCell="E14" activeCellId="0" sqref="E14:E14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="11.949999999999999"/>
@@ -1718,129 +1706,129 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:11" ht="24" customHeight="1">
-      <x:c r="A1" s="43" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B1" s="43"/>
-      <x:c r="C1" s="43"/>
-      <x:c r="D1" s="43"/>
-      <x:c r="E1" s="43"/>
-      <x:c r="F1" s="43"/>
-      <x:c r="G1" s="43"/>
-      <x:c r="H1" s="43"/>
-      <x:c r="I1" s="43"/>
-      <x:c r="J1" s="43"/>
-      <x:c r="K1" s="43"/>
+      <x:c r="A1" s="40" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B1" s="40"/>
+      <x:c r="C1" s="40"/>
+      <x:c r="D1" s="40"/>
+      <x:c r="E1" s="40"/>
+      <x:c r="F1" s="40"/>
+      <x:c r="G1" s="40"/>
+      <x:c r="H1" s="40"/>
+      <x:c r="I1" s="40"/>
+      <x:c r="J1" s="40"/>
+      <x:c r="K1" s="40"/>
     </x:row>
     <x:row r="2" spans="1:11" ht="15" customHeight="1">
       <x:c r="A2" s="41" t="s">
-        <x:v>39</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C2" s="45" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D2" s="46"/>
-      <x:c r="E2" s="46"/>
-      <x:c r="F2" s="46"/>
-      <x:c r="G2" s="46"/>
-      <x:c r="H2" s="46"/>
-      <x:c r="I2" s="47"/>
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C2" s="43" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D2" s="44"/>
+      <x:c r="E2" s="44"/>
+      <x:c r="F2" s="44"/>
+      <x:c r="G2" s="44"/>
+      <x:c r="H2" s="44"/>
+      <x:c r="I2" s="45"/>
       <x:c r="J2" s="20" t="s">
-        <x:v>12</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K2" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" ht="15" customHeight="1">
       <x:c r="A3" s="41"/>
       <x:c r="B3" s="17" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C3" s="45" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C3" s="43" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D3" s="44"/>
+      <x:c r="E3" s="44"/>
+      <x:c r="F3" s="44"/>
+      <x:c r="G3" s="44"/>
+      <x:c r="H3" s="44"/>
+      <x:c r="I3" s="45"/>
+      <x:c r="J3" s="20" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D3" s="46"/>
-      <x:c r="E3" s="46"/>
-      <x:c r="F3" s="46"/>
-      <x:c r="G3" s="46"/>
-      <x:c r="H3" s="46"/>
-      <x:c r="I3" s="47"/>
-      <x:c r="J3" s="20" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="K3" s="20" t="s">
-        <x:v>71</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14" ht="15" customHeight="1">
       <x:c r="A4" s="41"/>
       <x:c r="B4" s="17" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C4" s="45" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="46"/>
-      <x:c r="E4" s="46"/>
-      <x:c r="F4" s="46"/>
-      <x:c r="G4" s="46"/>
-      <x:c r="H4" s="46"/>
-      <x:c r="I4" s="47"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C4" s="43" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D4" s="44"/>
+      <x:c r="E4" s="44"/>
+      <x:c r="F4" s="44"/>
+      <x:c r="G4" s="44"/>
+      <x:c r="H4" s="44"/>
+      <x:c r="I4" s="45"/>
       <x:c r="J4" s="20" t="s">
-        <x:v>40</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K4" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="15" customHeight="1">
       <x:c r="A5" s="41"/>
       <x:c r="B5" s="17" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="45" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D5" s="46"/>
-      <x:c r="E5" s="46"/>
-      <x:c r="F5" s="46"/>
-      <x:c r="G5" s="46"/>
-      <x:c r="H5" s="46"/>
-      <x:c r="I5" s="47"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C5" s="43" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D5" s="44"/>
+      <x:c r="E5" s="44"/>
+      <x:c r="F5" s="44"/>
+      <x:c r="G5" s="44"/>
+      <x:c r="H5" s="44"/>
+      <x:c r="I5" s="45"/>
       <x:c r="J5" s="19"/>
       <x:c r="K5" s="20"/>
       <x:c r="N5" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="15" customHeight="1">
       <x:c r="A6" s="41"/>
       <x:c r="B6" s="17" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C6" s="44" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D6" s="44"/>
-      <x:c r="E6" s="44"/>
-      <x:c r="F6" s="44"/>
-      <x:c r="G6" s="44"/>
-      <x:c r="H6" s="44"/>
-      <x:c r="I6" s="44"/>
-      <x:c r="J6" s="44"/>
-      <x:c r="K6" s="44"/>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C6" s="42" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="42"/>
+      <x:c r="E6" s="42"/>
+      <x:c r="F6" s="42"/>
+      <x:c r="G6" s="42"/>
+      <x:c r="H6" s="42"/>
+      <x:c r="I6" s="42"/>
+      <x:c r="J6" s="42"/>
+      <x:c r="K6" s="42"/>
       <x:c r="N6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14">
@@ -1848,42 +1836,42 @@
       <x:c r="B7" s="1"/>
       <x:c r="C7" s="18"/>
       <x:c r="N7" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1">
       <x:c r="A8" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B8" s="15" t="s">
-        <x:v>14</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C8" s="15" t="s">
-        <x:v>24</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D8" s="15" t="s">
-        <x:v>98</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E8" s="15" t="s">
-        <x:v>32</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F8" s="16" t="s">
-        <x:v>69</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H8" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I8" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="K8" s="8" t="s">
-        <x:v>100</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M8" s="2"/>
       <x:c r="N8" s="2" t="str">
@@ -1898,7 +1886,7 @@
         <x:v>USE ENCLICK</x:v>
       </x:c>
       <x:c r="N9" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -1915,13 +1903,13 @@
         <x:v>DROP TABLE dbo.OPTION_GROUP</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14">
       <x:c r="A12" s="14"/>
       <x:c r="N12" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14">
@@ -1931,7 +1919,7 @@
         <x:v>USE ENCLICK</x:v>
       </x:c>
       <x:c r="N13" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
@@ -1946,31 +1934,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E15" s="3"/>
       <x:c r="F15" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G15" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H15" s="9"/>
       <x:c r="I15" s="9"/>
       <x:c r="J15" s="13" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K15" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M15" s="38" t="s">
-        <x:v>116</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N15" s="38"/>
     </x:row>
@@ -1979,36 +1967,36 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s">
-        <x:v>102</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E16" s="3"/>
       <x:c r="F16" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G16" s="9" t="s">
-        <x:v>45</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="9" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I16" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J16" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K16" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M16" s="38"/>
       <x:c r="N16" s="38" t="s">
-        <x:v>113</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:14">
@@ -2016,26 +2004,28 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>107</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D17" s="3"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D17" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="E17" s="3"/>
       <x:c r="F17" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G17" s="9"/>
       <x:c r="H17" s="9"/>
       <x:c r="I17" s="9"/>
       <x:c r="J17" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K17" s="10"/>
       <x:c r="M17" s="38"/>
       <x:c r="N17" s="38" t="s">
-        <x:v>81</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14">
@@ -2043,26 +2033,28 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D18" s="3"/>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="E18" s="3"/>
       <x:c r="F18" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G18" s="9"/>
       <x:c r="H18" s="9"/>
       <x:c r="I18" s="9"/>
       <x:c r="J18" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K18" s="10"/>
       <x:c r="M18" s="38"/>
       <x:c r="N18" s="38" t="s">
-        <x:v>88</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14">
@@ -2070,28 +2062,30 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D19" s="3"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D19" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="E19" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F19" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G19" s="9"/>
       <x:c r="H19" s="9"/>
       <x:c r="I19" s="9"/>
       <x:c r="J19" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K19" s="10"/>
       <x:c r="M19" s="38"/>
       <x:c r="N19" s="38" t="s">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:14" ht="14.25" customHeight="1">
@@ -2099,28 +2093,30 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D20" s="3"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D20" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="E20" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F20" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G20" s="9"/>
       <x:c r="H20" s="9"/>
       <x:c r="I20" s="9"/>
       <x:c r="J20" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K20" s="10"/>
       <x:c r="M20" s="38"/>
       <x:c r="N20" s="38" t="s">
-        <x:v>87</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14" ht="14.25" customHeight="1">
@@ -2128,26 +2124,28 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D21" s="3"/>
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D21" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="E21" s="3"/>
       <x:c r="F21" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G21" s="9"/>
       <x:c r="H21" s="9"/>
       <x:c r="I21" s="9"/>
       <x:c r="J21" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="K21" s="13"/>
       <x:c r="M21" s="38"/>
       <x:c r="N21" s="38" t="s">
-        <x:v>80</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="14.25" customHeight="1">
@@ -2155,26 +2153,26 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D22" s="3"/>
       <x:c r="E22" s="3"/>
       <x:c r="F22" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G22" s="9"/>
       <x:c r="H22" s="9"/>
       <x:c r="I22" s="9"/>
       <x:c r="J22" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K22" s="13"/>
       <x:c r="M22" s="38"/>
       <x:c r="N22" s="38" t="s">
-        <x:v>85</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14" ht="14.25" customHeight="1">
@@ -2206,7 +2204,7 @@
       <x:c r="K24" s="10"/>
       <x:c r="M24" s="38"/>
       <x:c r="N24" s="38" t="s">
-        <x:v>13</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:14" ht="14.25" customHeight="1">
@@ -2238,7 +2236,7 @@
       <x:c r="K26" s="13"/>
       <x:c r="M26" s="38"/>
       <x:c r="N26" s="38" t="s">
-        <x:v>114</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14" ht="14.25" customHeight="1">
@@ -2255,7 +2253,7 @@
       <x:c r="K27" s="12"/>
       <x:c r="M27" s="38"/>
       <x:c r="N27" s="38" t="s">
-        <x:v>118</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:14" ht="14.25" customHeight="1">
@@ -2287,7 +2285,7 @@
       <x:c r="K29" s="13"/>
       <x:c r="M29" s="38"/>
       <x:c r="N29" s="38" t="s">
-        <x:v>76</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="10:14" ht="14.25" customHeight="1">
@@ -2303,15 +2301,15 @@
       <x:c r="J31" s="4"/>
       <x:c r="M31" s="38"/>
       <x:c r="N31" s="38" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="3:14" ht="14.25" customHeight="1">
       <x:c r="C32" s="23" t="s">
-        <x:v>97</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E32" s="2" t="str">
         <x:f>IF(C33&lt;&gt;"",",","")</x:f>
@@ -2320,15 +2318,15 @@
       <x:c r="J32" s="4"/>
       <x:c r="M32" s="38"/>
       <x:c r="N32" s="38" t="s">
-        <x:v>43</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="3:14" ht="14.25" customHeight="1">
       <x:c r="C33" s="23" t="s">
-        <x:v>48</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E33" s="2" t="str">
         <x:f t="shared" ref="E33:E35" si="0">IF(C34&lt;&gt;"",",","")</x:f>
@@ -2337,7 +2335,7 @@
       <x:c r="J33" s="4"/>
       <x:c r="M33" s="38"/>
       <x:c r="N33" s="39" t="s">
-        <x:v>117</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="4:14" ht="14.25" customHeight="1">
@@ -2352,7 +2350,7 @@
       <x:c r="J34" s="4"/>
       <x:c r="M34" s="38"/>
       <x:c r="N34" s="39" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="4:14" ht="14.25" customHeight="1">
@@ -2367,22 +2365,22 @@
       <x:c r="J35" s="4"/>
       <x:c r="M35" s="38"/>
       <x:c r="N35" s="38" t="s">
-        <x:v>83</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:14" ht="14.25" customHeight="1">
       <x:c r="B36" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J36" s="4"/>
       <x:c r="M36" s="38"/>
       <x:c r="N36" s="38" t="s">
-        <x:v>60</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:10" ht="14.25" customHeight="1">
       <x:c r="B37" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J37" s="4"/>
     </x:row>
@@ -2402,14 +2400,14 @@
     <x:row r="41" spans="2:10" ht="14.25" customHeight="1">
       <x:c r="B41" s="2" t="str">
         <x:f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'"&amp;J15&amp;"' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'"&amp;$C$4&amp;"', @level2type=N'COLUMN',@level2name=N'"&amp;B15&amp;"' "</x:f>
-        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'그룹ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'GROUP_ID' </x:v>
+        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'그룹CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'GROUP_CD' </x:v>
       </x:c>
       <x:c r="J41" s="4"/>
     </x:row>
     <x:row r="42" spans="2:10" ht="14.25" customHeight="1">
       <x:c r="B42" s="2" t="str">
         <x:f t="shared" ref="B42:B48" si="1">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'"&amp;J16&amp;"' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'"&amp;$C$4&amp;"', @level2type=N'COLUMN',@level2name=N'"&amp;B16&amp;"' "</x:f>
-        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'PROD_ID' </x:v>
+        <x:v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품CD' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'OPTION_GROUP', @level2type=N'COLUMN',@level2name=N'PROD_CD' </x:v>
       </x:c>
       <x:c r="J42" s="4"/>
     </x:row>
@@ -2469,7 +2467,7 @@
     <x:mergeCell ref="C4:I4"/>
     <x:mergeCell ref="C5:I5"/>
   </x:mergeCells>
-  <x:pageMargins left="0.51986110210418701" right="0.46986111998558044" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.51972222328186035" right="0.46986111998558044" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2501,29 +2499,29 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="27.75" customHeight="1">
-      <x:c r="A1" s="40" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="B1" s="40"/>
-      <x:c r="C1" s="40"/>
-      <x:c r="D1" s="40"/>
-      <x:c r="E1" s="40"/>
-      <x:c r="F1" s="40"/>
+      <x:c r="A1" s="46" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B1" s="46"/>
+      <x:c r="C1" s="46"/>
+      <x:c r="D1" s="46"/>
+      <x:c r="E1" s="46"/>
+      <x:c r="F1" s="46"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="15" customHeight="1">
       <x:c r="A2" s="41" t="s">
-        <x:v>39</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C2" s="42" t="str">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C2" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$2</x:f>
         <x:v>EnClick</x:v>
       </x:c>
-      <x:c r="D2" s="42"/>
+      <x:c r="D2" s="47"/>
       <x:c r="E2" s="20" t="s">
-        <x:v>12</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F2" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$2</x:f>
@@ -2533,15 +2531,15 @@
     <x:row r="3" spans="1:6" ht="15" customHeight="1">
       <x:c r="A3" s="41"/>
       <x:c r="B3" s="17" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C3" s="42" t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C3" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$3</x:f>
         <x:v>ENCLICK</x:v>
       </x:c>
-      <x:c r="D3" s="42"/>
+      <x:c r="D3" s="47"/>
       <x:c r="E3" s="20" t="s">
-        <x:v>99</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F3" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$3</x:f>
@@ -2551,15 +2549,15 @@
     <x:row r="4" spans="1:6" ht="15" customHeight="1">
       <x:c r="A4" s="41"/>
       <x:c r="B4" s="17" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C4" s="42" t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C4" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>OPTION_GROUP</x:v>
       </x:c>
-      <x:c r="D4" s="42"/>
+      <x:c r="D4" s="47"/>
       <x:c r="E4" s="20" t="s">
-        <x:v>40</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F4" s="20" t="str">
         <x:f>'테스트 테이블 명세서'!$K$4</x:f>
@@ -2569,55 +2567,55 @@
     <x:row r="5" spans="1:6" ht="15" customHeight="1">
       <x:c r="A5" s="41"/>
       <x:c r="B5" s="17" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="42" t="str">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C5" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$5</x:f>
         <x:v>옵션그룹</x:v>
       </x:c>
-      <x:c r="D5" s="42"/>
+      <x:c r="D5" s="47"/>
       <x:c r="E5" s="19"/>
       <x:c r="F5" s="20"/>
     </x:row>
     <x:row r="6" spans="1:6" ht="15" customHeight="1">
       <x:c r="A6" s="41"/>
       <x:c r="B6" s="17" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C6" s="42" t="str">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C6" s="47" t="str">
         <x:f>'테스트 테이블 명세서'!$C$6</x:f>
         <x:v>옵션그룹 테이블</x:v>
       </x:c>
-      <x:c r="D6" s="42"/>
+      <x:c r="D6" s="47"/>
       <x:c r="E6" s="20"/>
       <x:c r="F6" s="20"/>
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" ht="19.5" customHeight="1">
       <x:c r="A8" s="24" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B8" s="22" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C8" s="24" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D8" s="34" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="C8" s="24" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D8" s="34" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="H8" s="2" t="s">
-        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2625,13 +2623,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -2672,24 +2670,24 @@
     </x:row>
     <x:row r="17" spans="2:8" ht="12.75" customHeight="1">
       <x:c r="B17" s="26" t="s">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C17" s="27" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>OPTION_GROUP</x:v>
       </x:c>
       <x:c r="D17" s="27" t="s">
-        <x:v>15</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E17" s="36" t="str">
         <x:f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</x:f>
         <x:v>FK_PRODUCT_TO_OPTION_GROUP_1</x:v>
       </x:c>
       <x:c r="F17" s="28" t="s">
-        <x:v>10</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H17" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:6" ht="12.75" customHeight="1">
@@ -2706,20 +2704,20 @@
     </x:row>
     <x:row r="19" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B19" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F19" s="30"/>
     </x:row>
     <x:row r="20" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B20" s="29" t="s">
-        <x:v>104</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C20" s="25" t="str">
         <x:f>C9</x:f>
         <x:v>PRODUCT</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F20" s="30"/>
     </x:row>
@@ -2737,7 +2735,7 @@
     </x:row>
     <x:row r="22" spans="2:6" ht="12.75" customHeight="1">
       <x:c r="B22" s="31" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C22" s="32"/>
       <x:c r="D22" s="32"/>
@@ -2746,24 +2744,24 @@
     </x:row>
     <x:row r="24" spans="2:8">
       <x:c r="B24" s="26" t="s">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C24" s="27" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>OPTION_GROUP</x:v>
       </x:c>
       <x:c r="D24" s="27" t="s">
-        <x:v>15</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E24" s="36" t="str">
         <x:f>"FK"&amp;"_"&amp;C18&amp;"_TO_"&amp;C24&amp;"_1"</x:f>
         <x:v>FK_PROD_ID_TO_OPTION_GROUP_1</x:v>
       </x:c>
       <x:c r="F24" s="28" t="s">
-        <x:v>10</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H24" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:6">
@@ -2792,20 +2790,20 @@
     </x:row>
     <x:row r="27" spans="2:6">
       <x:c r="B27" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F27" s="30"/>
     </x:row>
     <x:row r="28" spans="2:6">
       <x:c r="B28" s="29" t="s">
-        <x:v>104</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C28" s="25">
         <x:f>C10</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F28" s="30"/>
     </x:row>
@@ -2835,7 +2833,7 @@
     </x:row>
     <x:row r="31" spans="2:6">
       <x:c r="B31" s="31" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C31" s="32"/>
       <x:c r="D31" s="32"/>
@@ -2844,18 +2842,18 @@
     </x:row>
     <x:row r="34" spans="2:6">
       <x:c r="B34" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C34" s="2" t="str">
         <x:f>'테스트 테이블 명세서'!$C$4</x:f>
         <x:v>OPTION_GROUP</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E34" s="37"/>
       <x:c r="F34" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="3:4">
@@ -2867,16 +2865,16 @@
     </x:row>
     <x:row r="36" spans="2:2">
       <x:c r="B36" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:4">
       <x:c r="B37" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C37" s="25"/>
       <x:c r="D37" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="3:4">
@@ -2888,7 +2886,7 @@
     </x:row>
     <x:row r="39" spans="2:2">
       <x:c r="B39" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2901,7 +2899,7 @@
     <x:mergeCell ref="C5:D5"/>
     <x:mergeCell ref="C6:D6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>